--- a/Barcodes.xlsx
+++ b/Barcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrswe\Desktop\Beltway\Barcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE4F3C9-05A1-4C38-B52D-5DAC61B5EA9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129C255-C35D-4F96-8F28-C7C7FD0E1010}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB7F4413-DEEF-40E9-AEBB-C11A9CF3D445}"/>
   </bookViews>
@@ -1495,8 +1495,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>502919</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3386</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1745,8 +1745,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>502919</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3386</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1925,7 +1925,1507 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="18288000"/>
+          <a:off x="1718733" y="18169467"/>
+          <a:ext cx="723900" cy="499533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26121" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D69755-3FC2-4A52-BEA2-F0AA9489AF4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="18790920"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>3385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26166" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CE8070-517F-4D21-97C2-5D86B641153C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1718733" y="19171919"/>
+          <a:ext cx="723900" cy="499533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26122" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E070EEC-1ABC-4D05-9A5A-E21C5C1FE4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="19796761"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26167" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453CD444-ABA6-4F41-BD58-8038154EFA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="20299680"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26168" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432131B3-95C1-4D8B-9D6A-7924B0ED57EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="20802600"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26187" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C2CAEA-CD18-49CA-98D0-2157BDE915F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="21305520"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26188" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BA401C-9ADA-4812-971E-51734FAA2800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="21808439"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26225" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF0A250-5E93-47F0-A233-EBC83CD1075A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="22311361"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26123" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF2F092-F796-4CA8-87D9-532A40563555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="22814280"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26169" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E8E80D-D554-4242-963E-A71DFCF2A1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="23317200"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26170" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4A9D71-6B05-44D0-8FD4-1279526CB12E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="23820120"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26190" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2467B0C8-3B01-4D30-B666-AAFA8C2CEACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="24323039"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26191" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567B4869-FEB0-4823-8ED8-0AF7C5FEA42D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="24825961"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26226" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F11DD3C-DF3C-44C1-804B-4F4D2652B16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="25328880"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26124" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C42A17-C0F3-4073-99E8-71A891FC7107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="25831800"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26171" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6345D3FC-3B78-46AC-B04D-A88CC5824E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="26334721"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26172" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF58B0D-D1C9-4565-9E59-6C36735CA5A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="26837639"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26173" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBCC59B4-2CCE-4590-B4B3-69880E3202B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="27340561"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26192" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D9CBA8-6173-49D5-99ED-06E987AEE582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="27843479"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26193" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87117C47-4096-4A2F-9896-75A76AD1FE47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="28346400"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26194" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544A4277-B8D1-43E0-9AE5-402D59D9AB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="28849321"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26227" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD2AA12-C2F9-4B47-91D9-6480D2D4749D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="29352239"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26002" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA8B8CF-2822-4C09-92FE-16D25CBC36F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="29855161"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26003" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8F39AB-DF38-45E8-A344-6E5535627FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="30358079"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26004" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C780026-E5FC-478D-9C0B-2CFC451C6CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="30861000"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26005" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDCF750-8D6A-4F66-B476-292F738D005A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="31363921"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26051" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0E9293-9833-4135-AB60-CD7AA6217033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="31866839"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26052" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619CD9D1-A844-4C7C-BC1E-E0B8063E7C02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="32369761"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26053" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B061363-9085-461D-9E33-9C2EA035B14C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="32872679"/>
+          <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26054" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47FCFCE-3E5B-44FC-9ACF-B507A8A43432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="33375600"/>
           <a:ext cx="723900" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2237,8 +3737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7916C47-AC0B-4447-BAB7-416F86952E7B}">
   <dimension ref="A2:B299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2432,48 +3932,168 @@
         <v>26229</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>26121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>26166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>26122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>26167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>26168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>26187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>26188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>26225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>26123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>26169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>26170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>26190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>26191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>26226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>26124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>26171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>26172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>26173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>26192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>26193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>26194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>26227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>26002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>26003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>26004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>26005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>26051</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>26052</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>26053</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>26054</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="83" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Barcodes.xlsx
+++ b/Barcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrswe\Desktop\Beltway\Barcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129C255-C35D-4F96-8F28-C7C7FD0E1010}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87021C4A-13C5-46EA-A45C-95A90E225256}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB7F4413-DEEF-40E9-AEBB-C11A9CF3D445}"/>
   </bookViews>
@@ -28,6 +28,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>12114B</t>
+  </si>
+  <si>
+    <t>12113B</t>
+  </si>
+  <si>
+    <t>12112B</t>
+  </si>
+  <si>
+    <t>12111B</t>
+  </si>
+  <si>
+    <t>12110B</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3400,10 +3420,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26054" title="Code 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47FCFCE-3E5B-44FC-9ACF-B507A8A43432}"/>
+        <xdr:cNvPr id="85" name="Picture 84" descr="_TBCO10;B=20;CC=0;W=57.00pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=26054" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F399C41E-0BDC-4EB1-9CD5-2FA640C77C43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,6 +3447,256 @@
         <a:xfrm>
           <a:off x="1714500" y="33375600"/>
           <a:ext cx="723900" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 119" descr="_TBCO10;B=20;CC=0;W=64.80pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=12114B" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9F7F3D-79D5-4836-B89D-34E96CEF9581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="33878521"/>
+          <a:ext cx="822960" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 121" descr="_TBCO10;B=20;CC=0;W=64.80pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=12113B" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE89B54B-FBDF-4C83-B4AE-45028D56BDEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="34381439"/>
+          <a:ext cx="822960" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 123" descr="_TBCO10;B=20;CC=0;W=64.80pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=12112B" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA71ABF-E10F-4F0A-BA31-6A544C8BAC25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="34884361"/>
+          <a:ext cx="822960" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>502919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 125" descr="_TBCO10;B=20;CC=0;W=64.80pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=12111B" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDB0C0C-BF77-4269-A500-E5E99658C282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="35387279"/>
+          <a:ext cx="822960" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Picture 127" descr="_TBCO10;B=20;CC=0;W=64.80pt;H=39.60pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=12110B" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D6BE86-13C7-409A-86F8-CD39256E823E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="35890200"/>
+          <a:ext cx="822960" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7916C47-AC0B-4447-BAB7-416F86952E7B}">
   <dimension ref="A2:B299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4082,11 +4352,31 @@
         <v>26054</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="74" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4315,6 +4605,7 @@
     <row r="299" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>